--- a/Output/Relatorio-Erros-DE76E7565.xlsx
+++ b/Output/Relatorio-Erros-DE76E7565.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36250B99-2540-4254-9AC6-72AD0C0CD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558462A5-C1DD-4FE6-BBCB-AF3D15C5C497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DDCD7EE-2265-41B2-B679-8E38683091F6}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-DE76E7565.xlsx
+++ b/Output/Relatorio-Erros-DE76E7565.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10FC17D-28D7-440E-8D80-19E8A70A969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAC4589-83BD-414F-AA6E-3D75C3894FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{441DB8AE-AB08-43FA-83E3-D5946DF6A107}"/>
   </bookViews>
